--- a/SchedulingData/dynamic14/pso/scheduling1_15.xlsx
+++ b/SchedulingData/dynamic14/pso/scheduling1_15.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>45.48</v>
+        <v>78.86</v>
       </c>
       <c r="E2" t="n">
-        <v>26.152</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>71.31999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="E3" t="n">
-        <v>27.008</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>76.81999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="E4" t="n">
-        <v>25.968</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>76.81999999999999</v>
+        <v>78.86</v>
       </c>
       <c r="D5" t="n">
-        <v>143.38</v>
+        <v>154.92</v>
       </c>
       <c r="E5" t="n">
-        <v>22.952</v>
+        <v>22.828</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.16</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>27.264</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>70.90000000000001</v>
+        <v>76.72</v>
       </c>
       <c r="E7" t="n">
-        <v>27.04</v>
+        <v>25.968</v>
       </c>
     </row>
     <row r="8">
@@ -580,55 +580,55 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>74.14</v>
+        <v>68.5</v>
       </c>
       <c r="E8" t="n">
-        <v>26.256</v>
+        <v>25.32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>45.48</v>
+        <v>37.1</v>
       </c>
       <c r="D9" t="n">
-        <v>121.6</v>
+        <v>111.4</v>
       </c>
       <c r="E9" t="n">
-        <v>22.12</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>143.38</v>
+        <v>73.3</v>
       </c>
       <c r="D10" t="n">
-        <v>209.28</v>
+        <v>127.04</v>
       </c>
       <c r="E10" t="n">
-        <v>18.992</v>
+        <v>22.616</v>
       </c>
     </row>
     <row r="11">
@@ -637,36 +637,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>44.16</v>
+        <v>154.92</v>
       </c>
       <c r="D11" t="n">
-        <v>95.12</v>
+        <v>219.86</v>
       </c>
       <c r="E11" t="n">
-        <v>23.788</v>
+        <v>19.924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>70.90000000000001</v>
+        <v>76.72</v>
       </c>
       <c r="D12" t="n">
-        <v>119.28</v>
+        <v>135.22</v>
       </c>
       <c r="E12" t="n">
-        <v>24.312</v>
+        <v>23.208</v>
       </c>
     </row>
     <row r="13">
@@ -675,226 +675,226 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>209.28</v>
+        <v>111.4</v>
       </c>
       <c r="D13" t="n">
-        <v>268.88</v>
+        <v>160.92</v>
       </c>
       <c r="E13" t="n">
-        <v>15.152</v>
+        <v>19.328</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>95.12</v>
+        <v>135.22</v>
       </c>
       <c r="D14" t="n">
-        <v>173.56</v>
+        <v>210.62</v>
       </c>
       <c r="E14" t="n">
-        <v>20.564</v>
+        <v>20.248</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>121.6</v>
+        <v>127.04</v>
       </c>
       <c r="D15" t="n">
-        <v>194.84</v>
+        <v>195.6</v>
       </c>
       <c r="E15" t="n">
-        <v>18.376</v>
+        <v>19.36</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>173.56</v>
+        <v>160.92</v>
       </c>
       <c r="D16" t="n">
-        <v>236.66</v>
+        <v>225.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.884</v>
+        <v>15.94</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>71.31999999999999</v>
+        <v>219.86</v>
       </c>
       <c r="D17" t="n">
-        <v>137.62</v>
+        <v>282.56</v>
       </c>
       <c r="E17" t="n">
-        <v>22.508</v>
+        <v>15.764</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>74.14</v>
+        <v>225.8</v>
       </c>
       <c r="D18" t="n">
-        <v>127.54</v>
+        <v>287.06</v>
       </c>
       <c r="E18" t="n">
-        <v>22.536</v>
+        <v>12.924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>127.54</v>
+        <v>210.62</v>
       </c>
       <c r="D19" t="n">
-        <v>198.96</v>
+        <v>262.02</v>
       </c>
       <c r="E19" t="n">
-        <v>18.504</v>
+        <v>15.748</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>194.84</v>
+        <v>195.6</v>
       </c>
       <c r="D20" t="n">
-        <v>272.02</v>
+        <v>247.22</v>
       </c>
       <c r="E20" t="n">
-        <v>14.268</v>
+        <v>15.328</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>272.02</v>
+        <v>247.22</v>
       </c>
       <c r="D21" t="n">
-        <v>344.12</v>
+        <v>327.32</v>
       </c>
       <c r="E21" t="n">
-        <v>10.188</v>
+        <v>11.908</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>119.28</v>
+        <v>282.56</v>
       </c>
       <c r="D22" t="n">
-        <v>171.38</v>
+        <v>338.48</v>
       </c>
       <c r="E22" t="n">
-        <v>21.232</v>
+        <v>12.772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>137.62</v>
+        <v>327.32</v>
       </c>
       <c r="D23" t="n">
-        <v>206.3</v>
+        <v>392.22</v>
       </c>
       <c r="E23" t="n">
-        <v>19.26</v>
+        <v>8.528</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>171.38</v>
+        <v>262.02</v>
       </c>
       <c r="D24" t="n">
-        <v>211.82</v>
+        <v>326.94</v>
       </c>
       <c r="E24" t="n">
-        <v>18.328</v>
+        <v>12.836</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>198.96</v>
+        <v>68.5</v>
       </c>
       <c r="D25" t="n">
-        <v>263.92</v>
+        <v>122.16</v>
       </c>
       <c r="E25" t="n">
-        <v>16.128</v>
+        <v>22.584</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>344.12</v>
+        <v>122.16</v>
       </c>
       <c r="D26" t="n">
-        <v>385.38</v>
+        <v>190.64</v>
       </c>
       <c r="E26" t="n">
-        <v>7.692</v>
+        <v>19.856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>206.3</v>
+        <v>326.94</v>
       </c>
       <c r="D27" t="n">
-        <v>249.76</v>
+        <v>374.56</v>
       </c>
       <c r="E27" t="n">
-        <v>16.044</v>
+        <v>10.184</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>268.88</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>341.48</v>
+        <v>134.94</v>
       </c>
       <c r="E28" t="n">
-        <v>10.992</v>
+        <v>22.296</v>
       </c>
     </row>
     <row r="29">
@@ -979,188 +979,188 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>236.66</v>
+        <v>338.48</v>
       </c>
       <c r="D29" t="n">
-        <v>310.88</v>
+        <v>405.28</v>
       </c>
       <c r="E29" t="n">
-        <v>11.572</v>
+        <v>8.692</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>249.76</v>
+        <v>392.22</v>
       </c>
       <c r="D30" t="n">
-        <v>325.76</v>
+        <v>455.78</v>
       </c>
       <c r="E30" t="n">
-        <v>11.564</v>
+        <v>5.792</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>263.92</v>
+        <v>374.56</v>
       </c>
       <c r="D31" t="n">
-        <v>319</v>
+        <v>426.94</v>
       </c>
       <c r="E31" t="n">
-        <v>12.74</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>385.38</v>
+        <v>405.28</v>
       </c>
       <c r="D32" t="n">
-        <v>431.78</v>
+        <v>462.28</v>
       </c>
       <c r="E32" t="n">
-        <v>5.652</v>
+        <v>4.612</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>310.88</v>
+        <v>426.94</v>
       </c>
       <c r="D33" t="n">
-        <v>364.42</v>
+        <v>491.24</v>
       </c>
       <c r="E33" t="n">
-        <v>8.348000000000001</v>
+        <v>1.756</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>341.48</v>
+        <v>491.24</v>
       </c>
       <c r="D34" t="n">
-        <v>404.74</v>
+        <v>564.73</v>
       </c>
       <c r="E34" t="n">
-        <v>7.296</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>319</v>
+        <v>287.06</v>
       </c>
       <c r="D35" t="n">
-        <v>369.4</v>
+        <v>345.66</v>
       </c>
       <c r="E35" t="n">
-        <v>9.32</v>
+        <v>9.204000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>211.82</v>
+        <v>134.94</v>
       </c>
       <c r="D36" t="n">
-        <v>270.42</v>
+        <v>172.14</v>
       </c>
       <c r="E36" t="n">
-        <v>15.568</v>
+        <v>19.216</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>364.42</v>
+        <v>172.14</v>
       </c>
       <c r="D37" t="n">
-        <v>406.58</v>
+        <v>228.3</v>
       </c>
       <c r="E37" t="n">
-        <v>5.752</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>325.76</v>
+        <v>345.66</v>
       </c>
       <c r="D38" t="n">
-        <v>378.66</v>
+        <v>417.08</v>
       </c>
       <c r="E38" t="n">
-        <v>9.364000000000001</v>
+        <v>5.172</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>270.42</v>
+        <v>455.78</v>
       </c>
       <c r="D39" t="n">
-        <v>339.08</v>
+        <v>516.6799999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>12.312</v>
+        <v>1.832</v>
       </c>
     </row>
     <row r="40">
@@ -1188,93 +1188,93 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>339.08</v>
+        <v>516.6799999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>396.28</v>
+        <v>599.62</v>
       </c>
       <c r="E40" t="n">
-        <v>9.192</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>406.58</v>
+        <v>190.64</v>
       </c>
       <c r="D41" t="n">
-        <v>473.48</v>
+        <v>239.08</v>
       </c>
       <c r="E41" t="n">
-        <v>1.672</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>473.48</v>
+        <v>417.08</v>
       </c>
       <c r="D42" t="n">
-        <v>537.14</v>
+        <v>476.26</v>
       </c>
       <c r="E42" t="n">
-        <v>30</v>
+        <v>2.884</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>404.74</v>
+        <v>228.3</v>
       </c>
       <c r="D43" t="n">
-        <v>434.02</v>
+        <v>293.1</v>
       </c>
       <c r="E43" t="n">
-        <v>5.008</v>
+        <v>11.86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>396.28</v>
+        <v>462.28</v>
       </c>
       <c r="D44" t="n">
-        <v>470.88</v>
+        <v>528.38</v>
       </c>
       <c r="E44" t="n">
-        <v>4.872</v>
+        <v>2.572</v>
       </c>
     </row>
     <row r="45">
@@ -1283,188 +1283,188 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>378.66</v>
+        <v>293.1</v>
       </c>
       <c r="D45" t="n">
-        <v>422.22</v>
+        <v>355.14</v>
       </c>
       <c r="E45" t="n">
-        <v>6.628</v>
+        <v>8.276</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>434.02</v>
+        <v>355.14</v>
       </c>
       <c r="D46" t="n">
-        <v>514.02</v>
+        <v>408.14</v>
       </c>
       <c r="E46" t="n">
-        <v>0.148</v>
+        <v>6.076</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>514.02</v>
+        <v>408.14</v>
       </c>
       <c r="D47" t="n">
-        <v>595.62</v>
+        <v>481.58</v>
       </c>
       <c r="E47" t="n">
-        <v>30</v>
+        <v>2.332</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>369.4</v>
+        <v>476.26</v>
       </c>
       <c r="D48" t="n">
-        <v>426.34</v>
+        <v>547.39</v>
       </c>
       <c r="E48" t="n">
-        <v>5.736</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>537.14</v>
+        <v>547.39</v>
       </c>
       <c r="D49" t="n">
-        <v>574.24</v>
+        <v>595.59</v>
       </c>
       <c r="E49" t="n">
-        <v>27.48</v>
+        <v>26.88</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>431.78</v>
+        <v>239.08</v>
       </c>
       <c r="D50" t="n">
-        <v>504.4</v>
+        <v>298.76</v>
       </c>
       <c r="E50" t="n">
-        <v>3</v>
+        <v>12.784</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>595.62</v>
+        <v>298.76</v>
       </c>
       <c r="D51" t="n">
-        <v>648.92</v>
+        <v>366.92</v>
       </c>
       <c r="E51" t="n">
-        <v>26.36</v>
+        <v>9.568</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>470.88</v>
+        <v>366.92</v>
       </c>
       <c r="D52" t="n">
-        <v>550.78</v>
+        <v>410.7</v>
       </c>
       <c r="E52" t="n">
-        <v>1.492</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>550.78</v>
+        <v>410.7</v>
       </c>
       <c r="D53" t="n">
-        <v>634.5</v>
+        <v>462.86</v>
       </c>
       <c r="E53" t="n">
-        <v>30</v>
+        <v>3.724</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>422.22</v>
+        <v>564.73</v>
       </c>
       <c r="D54" t="n">
-        <v>477.34</v>
+        <v>600.49</v>
       </c>
       <c r="E54" t="n">
-        <v>3.716</v>
+        <v>27.624</v>
       </c>
     </row>
   </sheetData>
